--- a/import/Thêm phiếu thu.xlsx
+++ b/import/Thêm phiếu thu.xlsx
@@ -1,45 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HieuNV\Desktop\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HieuNV\Desktop\NMCNPM_\Code VS_DuPhong\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBB6B19-9ECD-4994-8D68-70F25A58C75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61972A51-9368-4BB1-85AE-0912050B37D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{589AC39C-7A8B-4996-98A1-E46B94095977}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Số phiếu thu</t>
   </si>
   <si>
-    <t>Số phiếu ĐKHP</t>
+    <t>Số phiếu đăng ký</t>
   </si>
   <si>
     <t>Ngày lập</t>
@@ -47,36 +38,13 @@
   <si>
     <t>Số tiền thu</t>
   </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,21 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,7 +109,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -165,7 +121,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -212,23 +168,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -264,23 +203,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,98 +354,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E660E365-46C3-4FDB-958A-E543481AF1C8}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44331</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44377</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3">
-        <v>44363</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7000</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44378</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>44364</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D4">
         <v>2000</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>